--- a/natmiOut/OldD4/LR-pairs_lrc2p/Gnas-Adrb2.xlsx
+++ b/natmiOut/OldD4/LR-pairs_lrc2p/Gnas-Adrb2.xlsx
@@ -534,52 +534,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>115.838616394949</v>
+        <v>123.9889473333333</v>
       </c>
       <c r="H2">
-        <v>115.838616394949</v>
+        <v>371.966842</v>
       </c>
       <c r="I2">
-        <v>0.192725754497943</v>
+        <v>0.1954468191201633</v>
       </c>
       <c r="J2">
-        <v>0.192725754497943</v>
+        <v>0.2134822208566356</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>11.3438394654671</v>
+        <v>11.38224566666667</v>
       </c>
       <c r="N2">
-        <v>11.3438394654671</v>
+        <v>34.146737</v>
       </c>
       <c r="O2">
-        <v>0.169079935352816</v>
+        <v>0.1566699514372174</v>
       </c>
       <c r="P2">
-        <v>0.169079935352816</v>
+        <v>0.1653163356343774</v>
       </c>
       <c r="Q2">
-        <v>1314.054668286127</v>
+        <v>1411.272658499395</v>
       </c>
       <c r="R2">
-        <v>1314.054668286127</v>
+        <v>12701.45392649456</v>
       </c>
       <c r="S2">
-        <v>0.03258605811133489</v>
+        <v>0.03062064366011459</v>
       </c>
       <c r="T2">
-        <v>0.03258605811133489</v>
+        <v>0.03529209847510786</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,52 +596,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>115.838616394949</v>
+        <v>123.9889473333333</v>
       </c>
       <c r="H3">
-        <v>115.838616394949</v>
+        <v>371.966842</v>
       </c>
       <c r="I3">
-        <v>0.192725754497943</v>
+        <v>0.1954468191201633</v>
       </c>
       <c r="J3">
-        <v>0.192725754497943</v>
+        <v>0.2134822208566356</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>3.15215156576934</v>
+        <v>3.467022</v>
       </c>
       <c r="N3">
-        <v>3.15215156576934</v>
+        <v>10.401066</v>
       </c>
       <c r="O3">
-        <v>0.04698282134413227</v>
+        <v>0.0477215291497777</v>
       </c>
       <c r="P3">
-        <v>0.04698282134413227</v>
+        <v>0.05035521015701474</v>
       </c>
       <c r="Q3">
-        <v>365.1408760458925</v>
+        <v>429.872408161508</v>
       </c>
       <c r="R3">
-        <v>365.1408760458925</v>
+        <v>3868.851673453572</v>
       </c>
       <c r="S3">
-        <v>0.009054799691989952</v>
+        <v>0.009327021075874201</v>
       </c>
       <c r="T3">
-        <v>0.009054799691989952</v>
+        <v>0.01074994209602212</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,52 +658,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>115.838616394949</v>
+        <v>123.9889473333333</v>
       </c>
       <c r="H4">
-        <v>115.838616394949</v>
+        <v>371.966842</v>
       </c>
       <c r="I4">
-        <v>0.192725754497943</v>
+        <v>0.1954468191201633</v>
       </c>
       <c r="J4">
-        <v>0.192725754497943</v>
+        <v>0.2134822208566356</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>16.7416553473595</v>
+        <v>21.711605</v>
       </c>
       <c r="N4">
-        <v>16.7416553473595</v>
+        <v>65.134815</v>
       </c>
       <c r="O4">
-        <v>0.2495343849362304</v>
+        <v>0.2988475385780532</v>
       </c>
       <c r="P4">
-        <v>0.2495343849362304</v>
+        <v>0.3153404947015312</v>
       </c>
       <c r="Q4">
-        <v>1939.330191599224</v>
+        <v>2691.999048867137</v>
       </c>
       <c r="R4">
-        <v>1939.330191599224</v>
+        <v>24227.99143980423</v>
       </c>
       <c r="S4">
-        <v>0.04809170261001516</v>
+        <v>0.05840880081697079</v>
       </c>
       <c r="T4">
-        <v>0.04809170261001516</v>
+        <v>0.06731958913491302</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -720,52 +720,52 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>115.838616394949</v>
+        <v>123.9889473333333</v>
       </c>
       <c r="H5">
-        <v>115.838616394949</v>
+        <v>371.966842</v>
       </c>
       <c r="I5">
-        <v>0.192725754497943</v>
+        <v>0.1954468191201633</v>
       </c>
       <c r="J5">
-        <v>0.192725754497943</v>
+        <v>0.2134822208566356</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>24.511688809475</v>
+        <v>24.690829</v>
       </c>
       <c r="N5">
-        <v>24.511688809475</v>
+        <v>74.072487</v>
       </c>
       <c r="O5">
-        <v>0.3653467392509263</v>
+        <v>0.3398548136861192</v>
       </c>
       <c r="P5">
-        <v>0.3653467392509263</v>
+        <v>0.3586109010112754</v>
       </c>
       <c r="Q5">
-        <v>2839.400117193139</v>
+        <v>3061.389896497339</v>
       </c>
       <c r="R5">
-        <v>2839.400117193139</v>
+        <v>27552.50906847605</v>
       </c>
       <c r="S5">
-        <v>0.07041172597549801</v>
+        <v>0.06642354229762773</v>
       </c>
       <c r="T5">
-        <v>0.07041172597549801</v>
+        <v>0.07655705157128619</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -782,52 +782,52 @@
         <v>24</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>115.838616394949</v>
+        <v>123.9889473333333</v>
       </c>
       <c r="H6">
-        <v>115.838616394949</v>
+        <v>371.966842</v>
       </c>
       <c r="I6">
-        <v>0.192725754497943</v>
+        <v>0.1954468191201633</v>
       </c>
       <c r="J6">
-        <v>0.192725754497943</v>
+        <v>0.2134822208566356</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>11.342241596579</v>
+        <v>11.399407</v>
       </c>
       <c r="N6">
-        <v>11.342241596579</v>
+        <v>22.798814</v>
       </c>
       <c r="O6">
-        <v>0.169056119115895</v>
+        <v>0.1569061671488326</v>
       </c>
       <c r="P6">
-        <v>0.169056119115895</v>
+        <v>0.1103770584958013</v>
       </c>
       <c r="Q6">
-        <v>1313.869573364949</v>
+        <v>1413.400474154231</v>
       </c>
       <c r="R6">
-        <v>1313.869573364949</v>
+        <v>8480.402844925389</v>
       </c>
       <c r="S6">
-        <v>0.032581468109105</v>
+        <v>0.03066681126957599</v>
       </c>
       <c r="T6">
-        <v>0.032581468109105</v>
+        <v>0.02356353957930644</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -844,52 +844,52 @@
         <v>20</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>197.799631374202</v>
+        <v>211.2281266666666</v>
       </c>
       <c r="H7">
-        <v>197.799631374202</v>
+        <v>633.6843799999999</v>
       </c>
       <c r="I7">
-        <v>0.3290878670894614</v>
+        <v>0.3329640774731549</v>
       </c>
       <c r="J7">
-        <v>0.3290878670894614</v>
+        <v>0.3636892687455195</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>11.3438394654671</v>
+        <v>11.38224566666667</v>
       </c>
       <c r="N7">
-        <v>11.3438394654671</v>
+        <v>34.146737</v>
       </c>
       <c r="O7">
-        <v>0.169079935352816</v>
+        <v>0.1566699514372174</v>
       </c>
       <c r="P7">
-        <v>0.169079935352816</v>
+        <v>0.1653163356343774</v>
       </c>
       <c r="Q7">
-        <v>2243.807264637517</v>
+        <v>2404.250429429784</v>
       </c>
       <c r="R7">
-        <v>2243.807264637517</v>
+        <v>21638.25386486806</v>
       </c>
       <c r="S7">
-        <v>0.05564215529288222</v>
+        <v>0.05216546584805706</v>
       </c>
       <c r="T7">
-        <v>0.05564215529288222</v>
+        <v>0.06012377721855558</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,52 +906,52 @@
         <v>21</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>197.799631374202</v>
+        <v>211.2281266666666</v>
       </c>
       <c r="H8">
-        <v>197.799631374202</v>
+        <v>633.6843799999999</v>
       </c>
       <c r="I8">
-        <v>0.3290878670894614</v>
+        <v>0.3329640774731549</v>
       </c>
       <c r="J8">
-        <v>0.3290878670894614</v>
+        <v>0.3636892687455195</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>3.15215156576934</v>
+        <v>3.467022</v>
       </c>
       <c r="N8">
-        <v>3.15215156576934</v>
+        <v>10.401066</v>
       </c>
       <c r="O8">
-        <v>0.04698282134413227</v>
+        <v>0.0477215291497777</v>
       </c>
       <c r="P8">
-        <v>0.04698282134413227</v>
+        <v>0.05035521015701474</v>
       </c>
       <c r="Q8">
-        <v>623.4944177447891</v>
+        <v>732.3325621721199</v>
       </c>
       <c r="R8">
-        <v>623.4944177447891</v>
+        <v>6590.99305954908</v>
       </c>
       <c r="S8">
-        <v>0.01546147646598571</v>
+        <v>0.015889554928964</v>
       </c>
       <c r="T8">
-        <v>0.01546147646598571</v>
+        <v>0.01831364955953164</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,52 +968,52 @@
         <v>22</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>197.799631374202</v>
+        <v>211.2281266666666</v>
       </c>
       <c r="H9">
-        <v>197.799631374202</v>
+        <v>633.6843799999999</v>
       </c>
       <c r="I9">
-        <v>0.3290878670894614</v>
+        <v>0.3329640774731549</v>
       </c>
       <c r="J9">
-        <v>0.3290878670894614</v>
+        <v>0.3636892687455195</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>16.7416553473595</v>
+        <v>21.711605</v>
       </c>
       <c r="N9">
-        <v>16.7416553473595</v>
+        <v>65.134815</v>
       </c>
       <c r="O9">
-        <v>0.2495343849362304</v>
+        <v>0.2988475385780532</v>
       </c>
       <c r="P9">
-        <v>0.2495343849362304</v>
+        <v>0.3153404947015312</v>
       </c>
       <c r="Q9">
-        <v>3311.493256301647</v>
+        <v>4586.101651076633</v>
       </c>
       <c r="R9">
-        <v>3311.493256301647</v>
+        <v>41274.9148596897</v>
       </c>
       <c r="S9">
-        <v>0.08211873850414468</v>
+        <v>0.09950549498776458</v>
       </c>
       <c r="T9">
-        <v>0.08211873850414468</v>
+        <v>0.1146859539238502</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,52 +1030,52 @@
         <v>23</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>197.799631374202</v>
+        <v>211.2281266666666</v>
       </c>
       <c r="H10">
-        <v>197.799631374202</v>
+        <v>633.6843799999999</v>
       </c>
       <c r="I10">
-        <v>0.3290878670894614</v>
+        <v>0.3329640774731549</v>
       </c>
       <c r="J10">
-        <v>0.3290878670894614</v>
+        <v>0.3636892687455195</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>24.511688809475</v>
+        <v>24.690829</v>
       </c>
       <c r="N10">
-        <v>24.511688809475</v>
+        <v>74.072487</v>
       </c>
       <c r="O10">
-        <v>0.3653467392509263</v>
+        <v>0.3398548136861192</v>
       </c>
       <c r="P10">
-        <v>0.3653467392509263</v>
+        <v>0.3586109010112754</v>
       </c>
       <c r="Q10">
-        <v>4848.403010873307</v>
+        <v>5215.397555517005</v>
       </c>
       <c r="R10">
-        <v>4848.403010873307</v>
+        <v>46938.57799965305</v>
       </c>
       <c r="S10">
-        <v>0.1202311791681769</v>
+        <v>0.1131594445138096</v>
       </c>
       <c r="T10">
-        <v>0.1202311791681769</v>
+        <v>0.1304229363529626</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1092,52 +1092,52 @@
         <v>24</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>197.799631374202</v>
+        <v>211.2281266666666</v>
       </c>
       <c r="H11">
-        <v>197.799631374202</v>
+        <v>633.6843799999999</v>
       </c>
       <c r="I11">
-        <v>0.3290878670894614</v>
+        <v>0.3329640774731549</v>
       </c>
       <c r="J11">
-        <v>0.3290878670894614</v>
+        <v>0.3636892687455195</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>11.342241596579</v>
+        <v>11.399407</v>
       </c>
       <c r="N11">
-        <v>11.342241596579</v>
+        <v>22.798814</v>
       </c>
       <c r="O11">
-        <v>0.169056119115895</v>
+        <v>0.1569061671488326</v>
       </c>
       <c r="P11">
-        <v>0.169056119115895</v>
+        <v>0.1103770584958013</v>
       </c>
       <c r="Q11">
-        <v>2243.491206760467</v>
+        <v>2407.875385720886</v>
       </c>
       <c r="R11">
-        <v>2243.491206760467</v>
+        <v>14447.25231432532</v>
       </c>
       <c r="S11">
-        <v>0.05563431765827181</v>
+        <v>0.05224411719455969</v>
       </c>
       <c r="T11">
-        <v>0.05563431765827181</v>
+        <v>0.0401429516906194</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1154,52 +1154,52 @@
         <v>20</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>68.0590918178804</v>
+        <v>77.63463966666666</v>
       </c>
       <c r="H12">
-        <v>68.0590918178804</v>
+        <v>232.903919</v>
       </c>
       <c r="I12">
-        <v>0.113232877163558</v>
+        <v>0.1223773868778609</v>
       </c>
       <c r="J12">
-        <v>0.113232877163558</v>
+        <v>0.1336701024397599</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>11.3438394654671</v>
+        <v>11.38224566666667</v>
       </c>
       <c r="N12">
-        <v>11.3438394654671</v>
+        <v>34.146737</v>
       </c>
       <c r="O12">
-        <v>0.169079935352816</v>
+        <v>0.1566699514372174</v>
       </c>
       <c r="P12">
-        <v>0.169079935352816</v>
+        <v>0.1653163356343774</v>
       </c>
       <c r="Q12">
-        <v>772.0514117475207</v>
+        <v>883.6565409291447</v>
       </c>
       <c r="R12">
-        <v>772.0514117475207</v>
+        <v>7952.908868362302</v>
       </c>
       <c r="S12">
-        <v>0.01914540755062774</v>
+        <v>0.01917285925916802</v>
       </c>
       <c r="T12">
-        <v>0.01914540755062774</v>
+        <v>0.02209785151921295</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1216,52 +1216,52 @@
         <v>21</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>68.0590918178804</v>
+        <v>77.63463966666666</v>
       </c>
       <c r="H13">
-        <v>68.0590918178804</v>
+        <v>232.903919</v>
       </c>
       <c r="I13">
-        <v>0.113232877163558</v>
+        <v>0.1223773868778609</v>
       </c>
       <c r="J13">
-        <v>0.113232877163558</v>
+        <v>0.1336701024397599</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>3.15215156576934</v>
+        <v>3.467022</v>
       </c>
       <c r="N13">
-        <v>3.15215156576934</v>
+        <v>10.401066</v>
       </c>
       <c r="O13">
-        <v>0.04698282134413227</v>
+        <v>0.0477215291497777</v>
       </c>
       <c r="P13">
-        <v>0.04698282134413227</v>
+        <v>0.05035521015701474</v>
       </c>
       <c r="Q13">
-        <v>214.532572838571</v>
+        <v>269.161003686406</v>
       </c>
       <c r="R13">
-        <v>214.532572838571</v>
+        <v>2422.449033177654</v>
       </c>
       <c r="S13">
-        <v>0.005320000038057522</v>
+        <v>0.00584003603516546</v>
       </c>
       <c r="T13">
-        <v>0.005320000038057522</v>
+        <v>0.006730986100063796</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1278,52 +1278,52 @@
         <v>22</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>68.0590918178804</v>
+        <v>77.63463966666666</v>
       </c>
       <c r="H14">
-        <v>68.0590918178804</v>
+        <v>232.903919</v>
       </c>
       <c r="I14">
-        <v>0.113232877163558</v>
+        <v>0.1223773868778609</v>
       </c>
       <c r="J14">
-        <v>0.113232877163558</v>
+        <v>0.1336701024397599</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>16.7416553473595</v>
+        <v>21.711605</v>
       </c>
       <c r="N14">
-        <v>16.7416553473595</v>
+        <v>65.134815</v>
       </c>
       <c r="O14">
-        <v>0.2495343849362304</v>
+        <v>0.2988475385780532</v>
       </c>
       <c r="P14">
-        <v>0.2495343849362304</v>
+        <v>0.3153404947015312</v>
       </c>
       <c r="Q14">
-        <v>1139.421858469249</v>
+        <v>1685.572630759998</v>
       </c>
       <c r="R14">
-        <v>1139.421858469249</v>
+        <v>15170.15367683998</v>
       </c>
       <c r="S14">
-        <v>0.02825549635756819</v>
+        <v>0.03657218084606288</v>
       </c>
       <c r="T14">
-        <v>0.02825549635756819</v>
+        <v>0.04215159623015823</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1340,52 +1340,52 @@
         <v>23</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>68.0590918178804</v>
+        <v>77.63463966666666</v>
       </c>
       <c r="H15">
-        <v>68.0590918178804</v>
+        <v>232.903919</v>
       </c>
       <c r="I15">
-        <v>0.113232877163558</v>
+        <v>0.1223773868778609</v>
       </c>
       <c r="J15">
-        <v>0.113232877163558</v>
+        <v>0.1336701024397599</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>24.511688809475</v>
+        <v>24.690829</v>
       </c>
       <c r="N15">
-        <v>24.511688809475</v>
+        <v>74.072487</v>
       </c>
       <c r="O15">
-        <v>0.3653467392509263</v>
+        <v>0.3398548136861192</v>
       </c>
       <c r="P15">
-        <v>0.3653467392509263</v>
+        <v>0.3586109010112754</v>
       </c>
       <c r="Q15">
-        <v>1668.24327929537</v>
+        <v>1916.863612486283</v>
       </c>
       <c r="R15">
-        <v>1668.24327929537</v>
+        <v>17251.77251237655</v>
       </c>
       <c r="S15">
-        <v>0.0413692624477066</v>
+        <v>0.04159054401676954</v>
       </c>
       <c r="T15">
-        <v>0.0413692624477066</v>
+        <v>0.04793555587419176</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1402,52 +1402,52 @@
         <v>24</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>68.0590918178804</v>
+        <v>77.63463966666666</v>
       </c>
       <c r="H16">
-        <v>68.0590918178804</v>
+        <v>232.903919</v>
       </c>
       <c r="I16">
-        <v>0.113232877163558</v>
+        <v>0.1223773868778609</v>
       </c>
       <c r="J16">
-        <v>0.113232877163558</v>
+        <v>0.1336701024397599</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>11.342241596579</v>
+        <v>11.399407</v>
       </c>
       <c r="N16">
-        <v>11.342241596579</v>
+        <v>22.798814</v>
       </c>
       <c r="O16">
-        <v>0.169056119115895</v>
+        <v>0.1569061671488326</v>
       </c>
       <c r="P16">
-        <v>0.169056119115895</v>
+        <v>0.1103770584958013</v>
       </c>
       <c r="Q16">
-        <v>771.9426622421526</v>
+        <v>884.9888548586775</v>
       </c>
       <c r="R16">
-        <v>771.9426622421526</v>
+        <v>5309.933129152066</v>
       </c>
       <c r="S16">
-        <v>0.01914271076959798</v>
+        <v>0.01920176672069499</v>
       </c>
       <c r="T16">
-        <v>0.01914271076959798</v>
+        <v>0.01475411271613312</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1464,52 +1464,52 @@
         <v>20</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>60.5518471348649</v>
+        <v>60.75256733333333</v>
       </c>
       <c r="H17">
-        <v>60.5518471348649</v>
+        <v>182.257702</v>
       </c>
       <c r="I17">
-        <v>0.100742747008672</v>
+        <v>0.09576576214298858</v>
       </c>
       <c r="J17">
-        <v>0.100742747008672</v>
+        <v>0.1046028156219013</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>11.3438394654671</v>
+        <v>11.38224566666667</v>
       </c>
       <c r="N17">
-        <v>11.3438394654671</v>
+        <v>34.146737</v>
       </c>
       <c r="O17">
-        <v>0.169079935352816</v>
+        <v>0.1566699514372174</v>
       </c>
       <c r="P17">
-        <v>0.169079935352816</v>
+        <v>0.1653163356343774</v>
       </c>
       <c r="Q17">
-        <v>686.8904332354115</v>
+        <v>691.5006462687082</v>
       </c>
       <c r="R17">
-        <v>686.8904332354115</v>
+        <v>6223.505816418374</v>
       </c>
       <c r="S17">
-        <v>0.01703357715149135</v>
+        <v>0.01500361730429013</v>
       </c>
       <c r="T17">
-        <v>0.01703357715149135</v>
+        <v>0.01729255417565112</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1526,52 +1526,52 @@
         <v>21</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F18">
         <v>1</v>
       </c>
       <c r="G18">
-        <v>60.5518471348649</v>
+        <v>60.75256733333333</v>
       </c>
       <c r="H18">
-        <v>60.5518471348649</v>
+        <v>182.257702</v>
       </c>
       <c r="I18">
-        <v>0.100742747008672</v>
+        <v>0.09576576214298858</v>
       </c>
       <c r="J18">
-        <v>0.100742747008672</v>
+        <v>0.1046028156219013</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18">
         <v>1</v>
       </c>
       <c r="M18">
-        <v>3.15215156576934</v>
+        <v>3.467022</v>
       </c>
       <c r="N18">
-        <v>3.15215156576934</v>
+        <v>10.401066</v>
       </c>
       <c r="O18">
-        <v>0.04698282134413227</v>
+        <v>0.0477215291497777</v>
       </c>
       <c r="P18">
-        <v>0.04698282134413227</v>
+        <v>0.05035521015701474</v>
       </c>
       <c r="Q18">
-        <v>190.8685997563901</v>
+        <v>210.630487501148</v>
       </c>
       <c r="R18">
-        <v>190.8685997563901</v>
+        <v>1895.674387510332</v>
       </c>
       <c r="S18">
-        <v>0.00473317848442555</v>
+        <v>0.004570088609657307</v>
       </c>
       <c r="T18">
-        <v>0.00473317848442555</v>
+        <v>0.005267296763656302</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1588,52 +1588,52 @@
         <v>22</v>
       </c>
       <c r="E19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F19">
         <v>1</v>
       </c>
       <c r="G19">
-        <v>60.5518471348649</v>
+        <v>60.75256733333333</v>
       </c>
       <c r="H19">
-        <v>60.5518471348649</v>
+        <v>182.257702</v>
       </c>
       <c r="I19">
-        <v>0.100742747008672</v>
+        <v>0.09576576214298858</v>
       </c>
       <c r="J19">
-        <v>0.100742747008672</v>
+        <v>0.1046028156219013</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L19">
         <v>1</v>
       </c>
       <c r="M19">
-        <v>16.7416553473595</v>
+        <v>21.711605</v>
       </c>
       <c r="N19">
-        <v>16.7416553473595</v>
+        <v>65.134815</v>
       </c>
       <c r="O19">
-        <v>0.2495343849362304</v>
+        <v>0.2988475385780532</v>
       </c>
       <c r="P19">
-        <v>0.2495343849362304</v>
+        <v>0.3153404947015312</v>
       </c>
       <c r="Q19">
-        <v>1013.738155377906</v>
+        <v>1319.035744677237</v>
       </c>
       <c r="R19">
-        <v>1013.738155377906</v>
+        <v>11871.32170209513</v>
       </c>
       <c r="S19">
-        <v>0.02513877941159522</v>
+        <v>0.02861936229648345</v>
       </c>
       <c r="T19">
-        <v>0.02513877941159522</v>
+        <v>0.0329855036253834</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1650,52 +1650,52 @@
         <v>23</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F20">
         <v>1</v>
       </c>
       <c r="G20">
-        <v>60.5518471348649</v>
+        <v>60.75256733333333</v>
       </c>
       <c r="H20">
-        <v>60.5518471348649</v>
+        <v>182.257702</v>
       </c>
       <c r="I20">
-        <v>0.100742747008672</v>
+        <v>0.09576576214298858</v>
       </c>
       <c r="J20">
-        <v>0.100742747008672</v>
+        <v>0.1046028156219013</v>
       </c>
       <c r="K20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L20">
         <v>1</v>
       </c>
       <c r="M20">
-        <v>24.511688809475</v>
+        <v>24.690829</v>
       </c>
       <c r="N20">
-        <v>24.511688809475</v>
+        <v>74.072487</v>
       </c>
       <c r="O20">
-        <v>0.3653467392509263</v>
+        <v>0.3398548136861192</v>
       </c>
       <c r="P20">
-        <v>0.3653467392509263</v>
+        <v>0.3586109010112754</v>
       </c>
       <c r="Q20">
-        <v>1484.228033808709</v>
+        <v>1500.031251338319</v>
       </c>
       <c r="R20">
-        <v>1484.228033808709</v>
+        <v>13500.28126204487</v>
       </c>
       <c r="S20">
-        <v>0.03680603412279931</v>
+        <v>0.03254645525061459</v>
       </c>
       <c r="T20">
-        <v>0.03680603412279931</v>
+        <v>0.03751170995848632</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1712,52 +1712,52 @@
         <v>24</v>
       </c>
       <c r="E21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F21">
         <v>1</v>
       </c>
       <c r="G21">
-        <v>60.5518471348649</v>
+        <v>60.75256733333333</v>
       </c>
       <c r="H21">
-        <v>60.5518471348649</v>
+        <v>182.257702</v>
       </c>
       <c r="I21">
-        <v>0.100742747008672</v>
+        <v>0.09576576214298858</v>
       </c>
       <c r="J21">
-        <v>0.100742747008672</v>
+        <v>0.1046028156219013</v>
       </c>
       <c r="K21">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L21">
         <v>1</v>
       </c>
       <c r="M21">
-        <v>11.342241596579</v>
+        <v>11.399407</v>
       </c>
       <c r="N21">
-        <v>11.342241596579</v>
+        <v>22.798814</v>
       </c>
       <c r="O21">
-        <v>0.169056119115895</v>
+        <v>0.1569061671488326</v>
       </c>
       <c r="P21">
-        <v>0.169056119115895</v>
+        <v>0.1103770584958013</v>
       </c>
       <c r="Q21">
-        <v>686.7936793227576</v>
+        <v>692.5432413275713</v>
       </c>
       <c r="R21">
-        <v>686.7936793227576</v>
+        <v>4155.259447965428</v>
       </c>
       <c r="S21">
-        <v>0.01703117783836052</v>
+        <v>0.01502623868194311</v>
       </c>
       <c r="T21">
-        <v>0.01703117783836052</v>
+        <v>0.01154575109872411</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1774,52 +1774,52 @@
         <v>20</v>
       </c>
       <c r="E22">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F22">
         <v>1</v>
       </c>
       <c r="G22">
-        <v>158.804972836137</v>
+        <v>160.7828525</v>
       </c>
       <c r="H22">
-        <v>158.804972836137</v>
+        <v>321.565705</v>
       </c>
       <c r="I22">
-        <v>0.2642107542403656</v>
+        <v>0.2534459543858325</v>
       </c>
       <c r="J22">
-        <v>0.2642107542403656</v>
+        <v>0.1845555923361839</v>
       </c>
       <c r="K22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L22">
         <v>1</v>
       </c>
       <c r="M22">
-        <v>11.3438394654671</v>
+        <v>11.38224566666667</v>
       </c>
       <c r="N22">
-        <v>11.3438394654671</v>
+        <v>34.146737</v>
       </c>
       <c r="O22">
-        <v>0.169079935352816</v>
+        <v>0.1566699514372174</v>
       </c>
       <c r="P22">
-        <v>0.169079935352816</v>
+        <v>0.1653163356343774</v>
       </c>
       <c r="Q22">
-        <v>1801.458118171002</v>
+        <v>1830.069926142431</v>
       </c>
       <c r="R22">
-        <v>1801.458118171002</v>
+        <v>10980.41955685459</v>
       </c>
       <c r="S22">
-        <v>0.04467273724647975</v>
+        <v>0.03970736536558758</v>
       </c>
       <c r="T22">
-        <v>0.04467273724647975</v>
+        <v>0.03051005424584991</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1836,52 +1836,52 @@
         <v>21</v>
       </c>
       <c r="E23">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F23">
         <v>1</v>
       </c>
       <c r="G23">
-        <v>158.804972836137</v>
+        <v>160.7828525</v>
       </c>
       <c r="H23">
-        <v>158.804972836137</v>
+        <v>321.565705</v>
       </c>
       <c r="I23">
-        <v>0.2642107542403656</v>
+        <v>0.2534459543858325</v>
       </c>
       <c r="J23">
-        <v>0.2642107542403656</v>
+        <v>0.1845555923361839</v>
       </c>
       <c r="K23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L23">
         <v>1</v>
       </c>
       <c r="M23">
-        <v>3.15215156576934</v>
+        <v>3.467022</v>
       </c>
       <c r="N23">
-        <v>3.15215156576934</v>
+        <v>10.401066</v>
       </c>
       <c r="O23">
-        <v>0.04698282134413227</v>
+        <v>0.0477215291497777</v>
       </c>
       <c r="P23">
-        <v>0.04698282134413227</v>
+        <v>0.05035521015701474</v>
       </c>
       <c r="Q23">
-        <v>500.5773437773868</v>
+        <v>557.437686840255</v>
       </c>
       <c r="R23">
-        <v>500.5773437773868</v>
+        <v>3344.62612104153</v>
       </c>
       <c r="S23">
-        <v>0.01241336666367353</v>
+        <v>0.01209482850011673</v>
       </c>
       <c r="T23">
-        <v>0.01241336666367353</v>
+        <v>0.009293335637740879</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1898,52 +1898,52 @@
         <v>22</v>
       </c>
       <c r="E24">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F24">
         <v>1</v>
       </c>
       <c r="G24">
-        <v>158.804972836137</v>
+        <v>160.7828525</v>
       </c>
       <c r="H24">
-        <v>158.804972836137</v>
+        <v>321.565705</v>
       </c>
       <c r="I24">
-        <v>0.2642107542403656</v>
+        <v>0.2534459543858325</v>
       </c>
       <c r="J24">
-        <v>0.2642107542403656</v>
+        <v>0.1845555923361839</v>
       </c>
       <c r="K24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L24">
         <v>1</v>
       </c>
       <c r="M24">
-        <v>16.7416553473595</v>
+        <v>21.711605</v>
       </c>
       <c r="N24">
-        <v>16.7416553473595</v>
+        <v>65.134815</v>
       </c>
       <c r="O24">
-        <v>0.2495343849362304</v>
+        <v>0.2988475385780532</v>
       </c>
       <c r="P24">
-        <v>0.2495343849362304</v>
+        <v>0.3153404947015312</v>
       </c>
       <c r="Q24">
-        <v>2658.658122669393</v>
+        <v>3490.853784253263</v>
       </c>
       <c r="R24">
-        <v>2658.658122669393</v>
+        <v>20945.12270551957</v>
       </c>
       <c r="S24">
-        <v>0.06592966805290715</v>
+        <v>0.07574169963077158</v>
       </c>
       <c r="T24">
-        <v>0.06592966805290715</v>
+        <v>0.05819785178722635</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1960,52 +1960,52 @@
         <v>23</v>
       </c>
       <c r="E25">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F25">
         <v>1</v>
       </c>
       <c r="G25">
-        <v>158.804972836137</v>
+        <v>160.7828525</v>
       </c>
       <c r="H25">
-        <v>158.804972836137</v>
+        <v>321.565705</v>
       </c>
       <c r="I25">
-        <v>0.2642107542403656</v>
+        <v>0.2534459543858325</v>
       </c>
       <c r="J25">
-        <v>0.2642107542403656</v>
+        <v>0.1845555923361839</v>
       </c>
       <c r="K25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L25">
         <v>1</v>
       </c>
       <c r="M25">
-        <v>24.511688809475</v>
+        <v>24.690829</v>
       </c>
       <c r="N25">
-        <v>24.511688809475</v>
+        <v>74.072487</v>
       </c>
       <c r="O25">
-        <v>0.3653467392509263</v>
+        <v>0.3398548136861192</v>
       </c>
       <c r="P25">
-        <v>0.3653467392509263</v>
+        <v>0.3586109010112754</v>
       </c>
       <c r="Q25">
-        <v>3892.578075556521</v>
+        <v>3969.861917209722</v>
       </c>
       <c r="R25">
-        <v>3892.578075556521</v>
+        <v>23819.17150325833</v>
       </c>
       <c r="S25">
-        <v>0.0965285375367454</v>
+        <v>0.08613482760729775</v>
       </c>
       <c r="T25">
-        <v>0.0965285375367454</v>
+        <v>0.06618364725434854</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2022,52 +2022,52 @@
         <v>24</v>
       </c>
       <c r="E26">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F26">
         <v>1</v>
       </c>
       <c r="G26">
-        <v>158.804972836137</v>
+        <v>160.7828525</v>
       </c>
       <c r="H26">
-        <v>158.804972836137</v>
+        <v>321.565705</v>
       </c>
       <c r="I26">
-        <v>0.2642107542403656</v>
+        <v>0.2534459543858325</v>
       </c>
       <c r="J26">
-        <v>0.2642107542403656</v>
+        <v>0.1845555923361839</v>
       </c>
       <c r="K26">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L26">
         <v>1</v>
       </c>
       <c r="M26">
-        <v>11.342241596579</v>
+        <v>11.399407</v>
       </c>
       <c r="N26">
-        <v>11.342241596579</v>
+        <v>22.798814</v>
       </c>
       <c r="O26">
-        <v>0.169056119115895</v>
+        <v>0.1569061671488326</v>
       </c>
       <c r="P26">
-        <v>0.169056119115895</v>
+        <v>0.1103770584958013</v>
       </c>
       <c r="Q26">
-        <v>1801.204368645632</v>
+        <v>1832.829174268467</v>
       </c>
       <c r="R26">
-        <v>1801.204368645632</v>
+        <v>7331.316697073869</v>
       </c>
       <c r="S26">
-        <v>0.04466644474055971</v>
+        <v>0.03976723328205883</v>
       </c>
       <c r="T26">
-        <v>0.04466644474055971</v>
+        <v>0.02037070341101822</v>
       </c>
     </row>
   </sheetData>
